--- a/CCRCs_Clustering/Results/Clustering_results_H2_freq.xlsx
+++ b/CCRCs_Clustering/Results/Clustering_results_H2_freq.xlsx
@@ -36,7 +36,7 @@
     <t>rules</t>
   </si>
   <si>
-    <t xml:space="preserve">"Ql7&lt;=-0.111" -&gt; "Pmmc3&lt;=-0.614" -&gt; "Ql2&lt;=-0.259" -&gt; "Pl7&lt;=-0.21" -&gt; </t>
+    <t xml:space="preserve">"Pl7&lt;=-0.148" -&gt; "Pmmc3&lt;=-0.614" -&gt; "Ql2&lt;=-0.259" -&gt; "Ql7&lt;=-0.157" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&lt;=-0.419" -&gt; "Pl9&gt;-0.262" -&gt; </t>
@@ -48,7 +48,7 @@
     <t xml:space="preserve">"Pmmc3&lt;=-0.419" -&gt; "Pl9&lt;=-0.262" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Ql7&lt;=-0.111" -&gt; "Pmmc3&gt;-0.614" -&gt; "Pmmc3&lt;=-0.16" -&gt; "Ql2&lt;=-0.259" -&gt; "Pl7&lt;=-0.21" -&gt; </t>
+    <t xml:space="preserve">"Pl7&lt;=-0.148" -&gt; "Pmmc3&gt;-0.614" -&gt; "Pmmc3&lt;=-0.16" -&gt; "Ql2&lt;=-0.259" -&gt; "Ql7&lt;=-0.157" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.16" -&gt; "Pmmc3&lt;=0.384" -&gt; "Pg1&gt;0.364" -&gt; </t>
@@ -66,7 +66,7 @@
     <t xml:space="preserve">"Pmmc3&gt;-0.16" -&gt; "Pmmc3&lt;=0.081" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Ql7&lt;=-0.111" -&gt; "Pmmc3&lt;=-0.16" -&gt; "Ql2&lt;=-0.259" -&gt; "Pl7&gt;-0.21" -&gt; </t>
+    <t xml:space="preserve">"Pl7&lt;=-0.148" -&gt; "Pmmc3&lt;=-0.16" -&gt; "Ql2&lt;=-0.259" -&gt; "Ql7&gt;-0.157" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.16" -&gt; "Pg1&lt;=0.364" -&gt; "Qg1&lt;=0.115" -&gt; "Pg2&lt;=0.095" -&gt; </t>
@@ -111,7 +111,7 @@
     <t xml:space="preserve">"Pmmc3&lt;=-0.254" -&gt; "Pg1&gt;0.145" -&gt; "Pg1&lt;=0.5" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Ql7&lt;=-0.111" -&gt; "Pmmc3&lt;=-0.16" -&gt; "Ql2&gt;-0.259" -&gt; "Ql2&lt;=-0.206" -&gt; "Qg1&gt;0.199" -&gt; </t>
+    <t xml:space="preserve">"Pl7&lt;=-0.148" -&gt; "Pmmc3&lt;=-0.16" -&gt; "Ql2&gt;-0.259" -&gt; "Pl2&lt;=-0.275" -&gt; "Qg1&gt;0.199" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.103" -&gt; "Pmmc3&lt;=0.149" -&gt; </t>
@@ -129,31 +129,31 @@
     <t xml:space="preserve">"Pmmc3&gt;0.081" -&gt; "Pmmc3&lt;=0.63" -&gt; "Pg1&gt;0.282" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.63" -&gt; "Qg3&gt;0.127" -&gt; "Ql9&gt;-0.201" -&gt; "Qg1&gt;0.149" -&gt; "Pl9&gt;-0.16" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.719" -&gt; "Ql7&gt;-0.099" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.63" -&gt; "Qg3&gt;0.127" -&gt; "Ql9&gt;-0.201" -&gt; "Qg1&gt;0.149" -&gt; "Pl9&lt;=-0.16" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&lt;=0.63" -&gt; "Qg3&gt;0.127" -&gt; "Pl9&gt;-0.16" -&gt; "Qg1&gt;0.149" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.719" -&gt; "Pl7&gt;-0.132" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=0.63" -&gt; "Qg3&gt;0.127" -&gt; "Pl9&gt;-0.268" -&gt; "Pl9&lt;=-0.16" -&gt; "Qg1&gt;0.149" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&lt;=-0.656" -&gt; "Pg1&gt;0.361" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Ql7&lt;=-0.111" -&gt; "Pmmc3&lt;=-0.16" -&gt; "Ql2&gt;-0.259" -&gt; "Ql2&lt;=-0.206" -&gt; "Qg1&lt;=0.199" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql2&gt;-0.178" -&gt; "Pg1&lt;=0.095" -&gt; "Pmmc3&lt;=0.447" -&gt; </t>
+    <t xml:space="preserve">"Pl7&lt;=-0.148" -&gt; "Pmmc3&lt;=-0.16" -&gt; "Ql2&gt;-0.259" -&gt; "Pl2&lt;=-0.275" -&gt; "Qg1&lt;=0.199" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&gt;-0.238" -&gt; "Pg1&lt;=0.095" -&gt; "Pmmc3&lt;=0.447" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pg1&gt;0.301" -&gt; "Pmmc3&lt;=-0.508" -&gt; "Pl9&gt;-0.278" -&gt; "Ql2&lt;=-0.168" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.49" -&gt; "Ql7&lt;=-0.099" -&gt; "Pl2&gt;-0.234" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Pmmc3&lt;=0.719" -&gt; "Ql7&gt;-0.099" -&gt; "Ql5&lt;=-0.077" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;0.49" -&gt; "Pl7&lt;=-0.132" -&gt; "Pl2&gt;-0.234" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.344" -&gt; "Pmmc3&lt;=0.719" -&gt; "Pl7&gt;-0.132" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.63" -&gt; </t>
@@ -162,13 +162,13 @@
     <t xml:space="preserve">"Pmmc3&gt;0.128" -&gt; "Pmmc3&lt;=0.679" -&gt; "Pg1&gt;0.282" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Ql2&gt;-0.178" -&gt; "Pg1&gt;0.095" -&gt; "Pg1&lt;=0.302" -&gt; "Pmmc3&lt;=0.447" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.63" -&gt; "Qg3&gt;0.127" -&gt; "Ql9&gt;-0.201" -&gt; "Qg1&lt;=0.149" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Pmmc3&lt;=0.719" -&gt; "Ql7&gt;-0.099" -&gt; "Ql5&gt;-0.077" -&gt; </t>
+    <t xml:space="preserve">"Pl2&gt;-0.238" -&gt; "Pg1&gt;0.095" -&gt; "Pg1&lt;=0.302" -&gt; "Pmmc3&lt;=0.447" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=0.63" -&gt; "Qg3&gt;0.127" -&gt; "Pl9&gt;-0.268" -&gt; "Qg1&lt;=0.149" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Pmmc3&lt;=0.344" -&gt; "Pl7&gt;-0.132" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pg1&gt;0.301" -&gt; "Pmmc3&lt;=-0.508" -&gt; "Pl9&gt;-0.278" -&gt; "Ql2&gt;-0.168" -&gt; </t>
@@ -177,40 +177,40 @@
     <t xml:space="preserve">"Pmmc3&lt;=-0.656" -&gt; "Pg1&lt;=0.361" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Ql2&gt;-0.178" -&gt; "Pg1&lt;=0.302" -&gt; "Pmmc3&gt;0.447" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql2&lt;=-0.178" -&gt; "Pg1&lt;=0.506" -&gt; "Pl2&gt;-0.284" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.63" -&gt; "Qg3&gt;0.127" -&gt; "Ql9&lt;=-0.201" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.49" -&gt; "Ql7&lt;=-0.099" -&gt; "Pl2&lt;=-0.234" -&gt; </t>
+    <t xml:space="preserve">"Pl2&gt;-0.238" -&gt; "Pg1&lt;=0.302" -&gt; "Pmmc3&gt;0.447" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&lt;=-0.238" -&gt; "Pg1&lt;=0.506" -&gt; "Ql2&gt;-0.213" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=0.63" -&gt; "Qg3&gt;0.127" -&gt; "Pl9&lt;=-0.268" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.49" -&gt; "Pl7&lt;=-0.132" -&gt; "Pl2&lt;=-0.234" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.049" -&gt; "Ql2&gt;-0.192" -&gt; "Qg1&lt;=0.101" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&lt;=-0.238" -&gt; "Pg1&lt;=0.506" -&gt; "Ql2&lt;=-0.213" -&gt; "Qg2&lt;=0.044" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.886" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.049" -&gt; "Pl2&gt;-0.255" -&gt; "Qg1&lt;=0.101" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql2&lt;=-0.178" -&gt; "Pg1&lt;=0.506" -&gt; "Pl2&lt;=-0.284" -&gt; "Qg2&lt;=0.044" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql2&gt;-0.178" -&gt; "Pg1&gt;0.302" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.63" -&gt; "Qg3&lt;=0.127" -&gt; "Qg1&gt;0.049" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pg1&lt;=0.301" -&gt; "Ql2&gt;-0.163" -&gt; "Pmmc3&lt;=-0.69" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Pmmc3&lt;=0.49" -&gt; "Ql7&lt;=-0.099" -&gt; "Ql9&gt;-0.189" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.049" -&gt; "Pl2&gt;-0.255" -&gt; "Qg1&gt;0.101" -&gt; </t>
+    <t xml:space="preserve">"Pl2&gt;-0.238" -&gt; "Pg1&gt;0.302" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=0.63" -&gt; "Qg3&lt;=0.127" -&gt; "Pg1&gt;0.085" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pg1&lt;=0.301" -&gt; "Pl2&gt;-0.217" -&gt; "Pmmc3&lt;=-0.69" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Pmmc3&lt;=0.49" -&gt; "Pl7&lt;=-0.132" -&gt; "Pl9&gt;-0.252" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.049" -&gt; "Ql2&gt;-0.192" -&gt; "Qg1&gt;0.101" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pg1&gt;0.301" -&gt; "Pmmc3&lt;=-0.508" -&gt; "Pl9&lt;=-0.278" -&gt; </t>
@@ -219,16 +219,16 @@
     <t xml:space="preserve">"Pmmc3&gt;-0.656" -&gt; "Pmmc3&lt;=0.041" -&gt; "Pg1&gt;0.32" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.238" -&gt; "Pg1&gt;0.303" -&gt; "Pl7&gt;-0.168" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.64" -&gt; "Pmmc3&lt;=0.049" -&gt; "Pl2&gt;-0.255" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql2&lt;=-0.178" -&gt; "Pg1&lt;=0.506" -&gt; "Pl2&lt;=-0.284" -&gt; "Qg2&gt;0.044" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Pmmc3&lt;=0.49" -&gt; "Ql7&lt;=-0.099" -&gt; "Ql9&lt;=-0.189" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.238" -&gt; "Pg1&gt;0.303" -&gt; "Ql7&gt;-0.126" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.64" -&gt; "Pmmc3&lt;=0.049" -&gt; "Ql2&gt;-0.192" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&lt;=-0.238" -&gt; "Pg1&lt;=0.506" -&gt; "Ql2&lt;=-0.213" -&gt; "Qg2&gt;0.044" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Pmmc3&lt;=0.49" -&gt; "Pl7&lt;=-0.132" -&gt; "Pl9&lt;=-0.252" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.656" -&gt; "Pmmc3&lt;=0.041" -&gt; "Pg1&lt;=0.32" -&gt; "Pl5&gt;-0.136" -&gt; </t>
@@ -237,52 +237,52 @@
     <t xml:space="preserve">"Pmmc3&gt;0.081" -&gt; "Pmmc3&lt;=0.63" -&gt; "Pg1&lt;=0.282" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.123" -&gt; "Ql9&gt;-0.153" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&lt;=0.123" -&gt; "Pl9&gt;-0.204" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.695" -&gt; "Pmmc3&lt;=-0.44" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.64" -&gt; "Pl2&gt;-0.384" -&gt; "Pl2&lt;=-0.255" -&gt; "Qg1&lt;=0.162" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.238" -&gt; "Pg1&gt;0.303" -&gt; "Pl7&lt;=-0.168" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Qg1&gt;0.095" -&gt; "Ql2&gt;-0.207" -&gt; "Qg2&gt;0.089" -&gt; "Qg3&gt;0.272" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.64" -&gt; "Pl2&gt;-0.384" -&gt; "Pl2&lt;=-0.255" -&gt; "Qg1&gt;0.162" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql2&lt;=-0.178" -&gt; "Pg1&gt;0.506" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.63" -&gt; "Qg3&lt;=0.127" -&gt; "Qg1&lt;=0.049" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.63" -&gt; "Pg3&gt;0.112" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pg1&lt;=0.301" -&gt; "Ql2&gt;-0.163" -&gt; "Pmmc3&gt;-0.69" -&gt; "Pmmc3&lt;=-0.38" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;-0.64" -&gt; "Ql2&gt;-0.288" -&gt; "Ql2&lt;=-0.192" -&gt; "Qg1&lt;=0.162" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.238" -&gt; "Pg1&gt;0.303" -&gt; "Ql7&lt;=-0.126" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Qg1&gt;0.095" -&gt; "Pl2&gt;-0.276" -&gt; "Qg2&gt;0.089" -&gt; "Pl9&gt;-0.159" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.64" -&gt; "Ql2&gt;-0.288" -&gt; "Ql2&lt;=-0.192" -&gt; "Qg1&gt;0.162" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&lt;=-0.238" -&gt; "Pg1&gt;0.506" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=0.63" -&gt; "Qg3&lt;=0.127" -&gt; "Pg1&lt;=0.085" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.63" -&gt; "Qg3&gt;0.112" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pg1&lt;=0.301" -&gt; "Pl2&gt;-0.217" -&gt; "Pmmc3&gt;-0.69" -&gt; "Pmmc3&lt;=-0.38" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pg1&gt;0.301" -&gt; "Pmmc3&gt;-0.508" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Qg1&gt;0.095" -&gt; "Ql2&gt;-0.207" -&gt; "Qg2&gt;0.089" -&gt; "Qg2&lt;=0.106" -&gt; "Qg3&lt;=0.272" -&gt; </t>
+    <t xml:space="preserve">"Qg1&gt;0.095" -&gt; "Pl2&gt;-0.276" -&gt; "Qg2&gt;0.089" -&gt; "Pl9&lt;=-0.159" -&gt; "Pg3&gt;0.189" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.41" -&gt; "Pg1&lt;=0.303" -&gt; "Ql2&gt;-0.242" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=0.123" -&gt; "Pl9&lt;=-0.204" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.719" -&gt; "Pmmc3&lt;=0.886" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.41" -&gt; "Pg1&lt;=0.303" -&gt; "Ql2&gt;-0.242" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.123" -&gt; "Ql9&lt;=-0.153" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.64" -&gt; "Pl2&lt;=-0.384" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;-0.64" -&gt; "Ql2&lt;=-0.288" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.656" -&gt; "Pmmc3&lt;=0.041" -&gt; "Pg1&lt;=0.32" -&gt; "Pl5&lt;=-0.136" -&gt; </t>
@@ -294,97 +294,97 @@
     <t xml:space="preserve">"Pmmc3&gt;0.128" -&gt; "Pmmc3&lt;=0.679" -&gt; "Pg1&lt;=0.282" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Qg1&gt;0.095" -&gt; "Ql2&gt;-0.207" -&gt; "Qg2&lt;=0.089" -&gt; "Pg1&gt;0.535" -&gt; </t>
+    <t xml:space="preserve">"Qg1&gt;0.095" -&gt; "Pl2&gt;-0.276" -&gt; "Qg2&lt;=0.089" -&gt; "Pg1&gt;0.535" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&lt;=-0.64" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Qg1&gt;0.095" -&gt; "Ql2&gt;-0.207" -&gt; "Qg2&gt;0.106" -&gt; "Qg3&lt;=0.272" -&gt; </t>
+    <t xml:space="preserve">"Qg1&gt;0.095" -&gt; "Pl2&gt;-0.276" -&gt; "Qg2&gt;0.089" -&gt; "Pl9&lt;=-0.159" -&gt; "Pg3&lt;=0.189" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.417" -&gt; "Pmmc3&lt;=0.719" -&gt; "Qg2&gt;0.058" -&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.41" -&gt; "Pmmc3&lt;=0.128" -&gt; "Pg1&lt;=0.303" -&gt; "Ql2&gt;-0.242" -&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">"Pmmc3&gt;0.417" -&gt; "Pmmc3&lt;=0.719" -&gt; "Qg2&lt;=0.058" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.41" -&gt; "Pmmc3&lt;=0.128" -&gt; "Pg1&lt;=0.303" -&gt; "Ql2&gt;-0.242" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.041" -&gt; "Qg3&gt;0.204" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Qg1&gt;0.095" -&gt; "Ql2&gt;-0.207" -&gt; "Qg2&lt;=0.089" -&gt; "Pg1&lt;=0.535" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.02" -&gt; "Pmmc3&lt;=0.417" -&gt; "Qg1&gt;0.149" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pg2&gt;0.173" -&gt; "Pl7&lt;=-0.154" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql7&lt;=-0.111" -&gt; "Pmmc3&lt;=-0.16" -&gt; "Ql2&gt;-0.206" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql7&lt;=-0.111" -&gt; "Pmmc3&gt;-0.16" -&gt; "Qg3&gt;0.206" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;0.041" -&gt; "Pg3&gt;0.204" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Qg1&gt;0.095" -&gt; "Pl2&gt;-0.276" -&gt; "Qg2&lt;=0.089" -&gt; "Pg1&lt;=0.535" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pg2&gt;0.173" -&gt; "Ql7&lt;=-0.116" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.02" -&gt; "Pmmc3&lt;=0.417" -&gt; "Pg1&gt;0.318" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl7&lt;=-0.148" -&gt; "Pmmc3&lt;=-0.16" -&gt; "Ql2&gt;-0.259" -&gt; "Pl2&gt;-0.275" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl7&lt;=-0.148" -&gt; "Pmmc3&gt;-0.16" -&gt; "Qg3&gt;0.206" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.719" -&gt; "Pmmc3&lt;=0.886" -&gt; "Pl9&gt;-0.283" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pg1&lt;=0.301" -&gt; "Ql2&gt;-0.163" -&gt; "Pmmc3&gt;-0.38" -&gt; </t>
+    <t xml:space="preserve">"Pg1&lt;=0.301" -&gt; "Pl2&gt;-0.217" -&gt; "Pmmc3&gt;-0.38" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pg2&gt;0.173" -&gt; "Ql7&gt;-0.116" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=0.128" -&gt; "Pg1&lt;=0.303" -&gt; "Ql2&lt;=-0.242" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.417" -&gt; "Pmmc3&lt;=0.719" -&gt; "Pl9&gt;-0.283" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pg2&gt;0.173" -&gt; "Pl7&gt;-0.154" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.128" -&gt; "Pg1&lt;=0.303" -&gt; "Ql2&lt;=-0.242" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.02" -&gt; "Pmmc3&lt;=0.417" -&gt; "Qg1&lt;=0.149" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Qg1&gt;0.095" -&gt; "Ql2&lt;=-0.207" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.63" -&gt; "Pg3&lt;=0.112" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;0.02" -&gt; "Pmmc3&lt;=0.417" -&gt; "Pg1&lt;=0.318" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Qg1&gt;0.095" -&gt; "Pl2&lt;=-0.276" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.63" -&gt; "Qg3&lt;=0.112" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.417" -&gt; "Pmmc3&lt;=0.886" -&gt; "Pl9&lt;=-0.283" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pg2&lt;=0.173" -&gt; "Pg3&gt;0.13" -&gt; "Ql2&gt;-0.198" -&gt; "Qg1&gt;0.261" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pg1&lt;=0.301" -&gt; "Ql2&lt;=-0.163" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pg2&lt;=0.173" -&gt; "Pg3&gt;0.13" -&gt; "Ql2&gt;-0.198" -&gt; "Qg1&lt;=0.261" -&gt; </t>
+    <t xml:space="preserve">"Pg2&lt;=0.173" -&gt; "Qg3&gt;0.13" -&gt; "Pl2&gt;-0.265" -&gt; "Qg1&gt;0.261" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pg1&lt;=0.301" -&gt; "Pl2&lt;=-0.217" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pg2&lt;=0.173" -&gt; "Qg3&gt;0.13" -&gt; "Pl2&gt;-0.265" -&gt; "Qg1&lt;=0.261" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&lt;=0.02" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.041" -&gt; "Qg3&lt;=0.204" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;0.041" -&gt; "Pg3&lt;=0.204" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.128" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pg2&lt;=0.173" -&gt; "Pg3&gt;0.13" -&gt; "Ql2&lt;=-0.198" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pg2&lt;=0.173" -&gt; "Pg3&lt;=0.13" -&gt; </t>
+    <t xml:space="preserve">"Pg2&lt;=0.173" -&gt; "Qg3&gt;0.13" -&gt; "Pl2&lt;=-0.265" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pg2&lt;=0.173" -&gt; "Qg3&lt;=0.13" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.679" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Ql7&lt;=-0.111" -&gt; "Pmmc3&gt;-0.16" -&gt; "Qg3&lt;=0.206" -&gt; </t>
+    <t xml:space="preserve">"Pl7&lt;=-0.148" -&gt; "Pmmc3&gt;-0.16" -&gt; "Qg3&lt;=0.206" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Qg1&lt;=0.095" -&gt; </t>
@@ -396,7 +396,7 @@
     <t xml:space="preserve">"Pmmc3&lt;=-0.695" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Ql7&gt;-0.111" -&gt; </t>
+    <t xml:space="preserve">"Pl7&gt;-0.148" -&gt; </t>
   </si>
   <si>
     <t>Combinations</t>
@@ -411,7 +411,7 @@
     <t>[6]</t>
   </si>
   <si>
-    <t>[76, 56, 41]</t>
+    <t>[41, 56, 76]</t>
   </si>
   <si>
     <t>[12, 22]</t>
@@ -420,7 +420,7 @@
     <t>[17]</t>
   </si>
   <si>
-    <t>Ql7&lt;=-0.111 and Pmmc3&lt;=-0.614 and Ql2&lt;=-0.259 and Pl7&lt;=-0.21</t>
+    <t>Pl7&lt;=-0.148 and Pmmc3&lt;=-0.614 and Ql2&lt;=-0.259 and Ql7&lt;=-0.157</t>
   </si>
   <si>
     <t>Pmmc3&lt;=-0.419 and Pl9&gt;-0.262</t>
@@ -432,7 +432,7 @@
     <t>Pmmc3&lt;=-0.419 and Pl9&lt;=-0.262</t>
   </si>
   <si>
-    <t>Ql7&lt;=-0.111 and Pmmc3&gt;-0.614 and Pmmc3&lt;=-0.16 and Ql2&lt;=-0.259 and Pl7&lt;=-0.21</t>
+    <t>Pl7&lt;=-0.148 and Pmmc3&gt;-0.614 and Pmmc3&lt;=-0.16 and Ql2&lt;=-0.259 and Ql7&lt;=-0.157</t>
   </si>
   <si>
     <t>Pmmc3&gt;-0.16 and Pmmc3&lt;=0.384 and Pg1&gt;0.364</t>
@@ -889,7 +889,7 @@
         <v>42</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
@@ -912,7 +912,7 @@
         <v>26</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -935,7 +935,7 @@
         <v>30</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -981,7 +981,7 @@
         <v>20</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -1004,7 +1004,7 @@
         <v>30</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -1027,7 +1027,7 @@
         <v>28</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -1050,7 +1050,7 @@
         <v>20</v>
       </c>
       <c r="F10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -1073,7 +1073,7 @@
         <v>33</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -1119,7 +1119,7 @@
         <v>22</v>
       </c>
       <c r="F13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -1142,7 +1142,7 @@
         <v>24</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
@@ -1165,7 +1165,7 @@
         <v>24</v>
       </c>
       <c r="F15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
@@ -1188,7 +1188,7 @@
         <v>27</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" t="s">
         <v>20</v>
@@ -1211,7 +1211,7 @@
         <v>27</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17" t="s">
         <v>21</v>
@@ -1234,7 +1234,7 @@
         <v>20</v>
       </c>
       <c r="F18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G18" t="s">
         <v>22</v>
@@ -1257,7 +1257,7 @@
         <v>28</v>
       </c>
       <c r="F19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
         <v>23</v>
@@ -1280,7 +1280,7 @@
         <v>16</v>
       </c>
       <c r="F20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" t="s">
         <v>24</v>
@@ -1303,7 +1303,7 @@
         <v>24</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G21" t="s">
         <v>25</v>
@@ -1326,7 +1326,7 @@
         <v>26</v>
       </c>
       <c r="F22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G22" t="s">
         <v>26</v>
@@ -1372,7 +1372,7 @@
         <v>33</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" t="s">
         <v>28</v>
@@ -1395,7 +1395,7 @@
         <v>27</v>
       </c>
       <c r="F25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G25" t="s">
         <v>29</v>
@@ -1464,7 +1464,7 @@
         <v>24</v>
       </c>
       <c r="F28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G28" t="s">
         <v>32</v>
@@ -1487,7 +1487,7 @@
         <v>33</v>
       </c>
       <c r="F29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G29" t="s">
         <v>33</v>
@@ -1556,7 +1556,7 @@
         <v>33</v>
       </c>
       <c r="F32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G32" t="s">
         <v>36</v>
@@ -1579,7 +1579,7 @@
         <v>12</v>
       </c>
       <c r="F33">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
@@ -1602,7 +1602,7 @@
         <v>15</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G34" t="s">
         <v>38</v>
@@ -1625,7 +1625,7 @@
         <v>12</v>
       </c>
       <c r="F35">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G35" t="s">
         <v>39</v>
@@ -1648,7 +1648,7 @@
         <v>42</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G36" t="s">
         <v>40</v>
@@ -1694,7 +1694,7 @@
         <v>33</v>
       </c>
       <c r="F38">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G38" t="s">
         <v>42</v>
@@ -1717,7 +1717,7 @@
         <v>15</v>
       </c>
       <c r="F39">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G39" t="s">
         <v>43</v>
@@ -1740,7 +1740,7 @@
         <v>12</v>
       </c>
       <c r="F40">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G40" t="s">
         <v>44</v>
@@ -1751,7 +1751,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C41">
         <v>0.2062273419723328</v>
@@ -1763,7 +1763,7 @@
         <v>12</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -1786,7 +1786,7 @@
         <v>36</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -1832,7 +1832,7 @@
         <v>30</v>
       </c>
       <c r="F44">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G44" t="s">
         <v>48</v>
@@ -1855,7 +1855,7 @@
         <v>15</v>
       </c>
       <c r="F45">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G45" t="s">
         <v>49</v>
@@ -1866,7 +1866,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C46">
         <v>0.2078506802082498</v>
@@ -1878,7 +1878,7 @@
         <v>12</v>
       </c>
       <c r="F46">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G46" t="s">
         <v>50</v>
@@ -1901,7 +1901,7 @@
         <v>20</v>
       </c>
       <c r="F47">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G47" t="s">
         <v>51</v>
@@ -1924,7 +1924,7 @@
         <v>36</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G48" t="s">
         <v>52</v>
@@ -1947,7 +1947,7 @@
         <v>24</v>
       </c>
       <c r="F49">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G49" t="s">
         <v>53</v>
@@ -1970,7 +1970,7 @@
         <v>24</v>
       </c>
       <c r="F50">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G50" t="s">
         <v>54</v>
@@ -1993,7 +1993,7 @@
         <v>15</v>
       </c>
       <c r="F51">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G51" t="s">
         <v>55</v>
@@ -2016,7 +2016,7 @@
         <v>15</v>
       </c>
       <c r="F52">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G52" t="s">
         <v>56</v>
@@ -2027,19 +2027,19 @@
         <v>51</v>
       </c>
       <c r="B53">
+        <v>11</v>
+      </c>
+      <c r="C53">
+        <v>0.2101852046569681</v>
+      </c>
+      <c r="D53">
+        <v>0.0007607903795744545</v>
+      </c>
+      <c r="E53">
         <v>12</v>
       </c>
-      <c r="C53">
-        <v>0.2101149895729309</v>
-      </c>
-      <c r="D53">
-        <v>0.005775057802346201</v>
-      </c>
-      <c r="E53">
-        <v>32</v>
-      </c>
       <c r="F53">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G53" t="s">
         <v>57</v>
@@ -2050,19 +2050,19 @@
         <v>52</v>
       </c>
       <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>0.2107109012532603</v>
+      </c>
+      <c r="D54">
+        <v>0.003997725527603664</v>
+      </c>
+      <c r="E54">
+        <v>24</v>
+      </c>
+      <c r="F54">
         <v>11</v>
-      </c>
-      <c r="C54">
-        <v>0.2101852046569681</v>
-      </c>
-      <c r="D54">
-        <v>0.0007607903795744545</v>
-      </c>
-      <c r="E54">
-        <v>12</v>
-      </c>
-      <c r="F54">
-        <v>3</v>
       </c>
       <c r="G54" t="s">
         <v>58</v>
@@ -2073,19 +2073,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C55">
-        <v>0.2107109012532603</v>
+        <v>0.2107204795029924</v>
       </c>
       <c r="D55">
-        <v>0.003997725527603664</v>
+        <v>0.005890098107193607</v>
       </c>
       <c r="E55">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F55">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G55" t="s">
         <v>59</v>
@@ -2108,7 +2108,7 @@
         <v>42</v>
       </c>
       <c r="F56">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G56" t="s">
         <v>60</v>
@@ -2131,7 +2131,7 @@
         <v>15</v>
       </c>
       <c r="F57">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G57" t="s">
         <v>61</v>
@@ -2154,7 +2154,7 @@
         <v>15</v>
       </c>
       <c r="F58">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G58" t="s">
         <v>62</v>
@@ -2177,7 +2177,7 @@
         <v>12</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G59" t="s">
         <v>63</v>
@@ -2223,7 +2223,7 @@
         <v>17</v>
       </c>
       <c r="F61">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G61" t="s">
         <v>65</v>
@@ -2246,7 +2246,7 @@
         <v>60</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G62" t="s">
         <v>66</v>
@@ -2269,7 +2269,7 @@
         <v>35</v>
       </c>
       <c r="F63">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G63" t="s">
         <v>67</v>
@@ -2315,7 +2315,7 @@
         <v>24</v>
       </c>
       <c r="F65">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G65" t="s">
         <v>69</v>
@@ -2338,7 +2338,7 @@
         <v>12</v>
       </c>
       <c r="F66">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G66" t="s">
         <v>70</v>
@@ -2361,7 +2361,7 @@
         <v>48</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G67" t="s">
         <v>71</v>
@@ -2384,7 +2384,7 @@
         <v>27</v>
       </c>
       <c r="F68">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G68" t="s">
         <v>72</v>
@@ -2407,7 +2407,7 @@
         <v>15</v>
       </c>
       <c r="F69">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G69" t="s">
         <v>73</v>
@@ -2430,7 +2430,7 @@
         <v>25</v>
       </c>
       <c r="F70">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G70" t="s">
         <v>74</v>
@@ -2476,7 +2476,7 @@
         <v>55</v>
       </c>
       <c r="F72">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G72" t="s">
         <v>76</v>
@@ -2499,7 +2499,7 @@
         <v>28</v>
       </c>
       <c r="F73">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G73" t="s">
         <v>77</v>
@@ -2545,7 +2545,7 @@
         <v>30</v>
       </c>
       <c r="F75">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G75" t="s">
         <v>79</v>
@@ -2568,7 +2568,7 @@
         <v>12</v>
       </c>
       <c r="F76">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G76" t="s">
         <v>80</v>
@@ -2591,7 +2591,7 @@
         <v>12</v>
       </c>
       <c r="F77">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G77" t="s">
         <v>81</v>
@@ -2614,7 +2614,7 @@
         <v>20</v>
       </c>
       <c r="F78">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G78" t="s">
         <v>82</v>
@@ -2637,7 +2637,7 @@
         <v>17</v>
       </c>
       <c r="F79">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G79" t="s">
         <v>83</v>
@@ -2648,7 +2648,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C80">
         <v>0.2183731685236587</v>
@@ -2660,7 +2660,7 @@
         <v>28</v>
       </c>
       <c r="F80">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G80" t="s">
         <v>84</v>
@@ -2671,19 +2671,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C81">
-        <v>0.2185098624375867</v>
+        <v>0.2185982600145151</v>
       </c>
       <c r="D81">
-        <v>0.005418020042290889</v>
+        <v>0.002937623746362288</v>
       </c>
       <c r="E81">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F81">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G81" t="s">
         <v>85</v>
@@ -2694,19 +2694,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C82">
-        <v>0.2185982600145151</v>
+        <v>0.2190578237646297</v>
       </c>
       <c r="D82">
-        <v>0.002937623746362288</v>
+        <v>0.0069699488048257</v>
       </c>
       <c r="E82">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F82">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G82" t="s">
         <v>86</v>
@@ -2717,19 +2717,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C83">
-        <v>0.2190578237646297</v>
+        <v>0.2193122343182833</v>
       </c>
       <c r="D83">
-        <v>0.0069699488048257</v>
+        <v>0.005634123376370273</v>
       </c>
       <c r="E83">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="F83">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G83" t="s">
         <v>87</v>
@@ -2775,7 +2775,7 @@
         <v>54</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G85" t="s">
         <v>89</v>
@@ -2798,7 +2798,7 @@
         <v>40</v>
       </c>
       <c r="F86">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G86" t="s">
         <v>90</v>
@@ -2844,7 +2844,7 @@
         <v>42</v>
       </c>
       <c r="F88">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G88" t="s">
         <v>92</v>
@@ -2878,7 +2878,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C90">
         <v>0.2214424645942078</v>
@@ -2890,7 +2890,7 @@
         <v>28</v>
       </c>
       <c r="F90">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G90" t="s">
         <v>94</v>
@@ -2904,16 +2904,16 @@
         <v>10</v>
       </c>
       <c r="C91">
-        <v>0.2214613786327092</v>
+        <v>0.2223052108826919</v>
       </c>
       <c r="D91">
-        <v>0.005491178344916952</v>
+        <v>0.005725913826503037</v>
       </c>
       <c r="E91">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F91">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G91" t="s">
         <v>95</v>
@@ -2924,19 +2924,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C92">
-        <v>0.224339401501553</v>
+        <v>0.224472934753862</v>
       </c>
       <c r="D92">
-        <v>0.005767953046665477</v>
+        <v>0.005095934673387183</v>
       </c>
       <c r="E92">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F92">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G92" t="s">
         <v>96</v>
@@ -2947,19 +2947,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C93">
-        <v>0.224472934753862</v>
+        <v>0.2252577272060837</v>
       </c>
       <c r="D93">
-        <v>0.005095934673387183</v>
+        <v>0.006056988353411477</v>
       </c>
       <c r="E93">
         <v>45</v>
       </c>
       <c r="F93">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G93" t="s">
         <v>97</v>
@@ -2973,19 +2973,19 @@
         <v>12</v>
       </c>
       <c r="C94">
-        <v>0.2247082650596202</v>
+        <v>0.2255213244463556</v>
       </c>
       <c r="D94">
-        <v>0.005681615053531329</v>
+        <v>0.01159372967548088</v>
       </c>
       <c r="E94">
         <v>48</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G94" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2996,19 +2996,19 @@
         <v>12</v>
       </c>
       <c r="C95">
-        <v>0.2255213244463556</v>
+        <v>0.2255395256156326</v>
       </c>
       <c r="D95">
-        <v>0.01159372967548088</v>
+        <v>0.005005955667206062</v>
       </c>
       <c r="E95">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3028,7 +3028,7 @@
         <v>50</v>
       </c>
       <c r="F96">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G96" t="s">
         <v>99</v>
@@ -3039,19 +3039,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C97">
-        <v>0.2282298114139913</v>
+        <v>0.228366617737076</v>
       </c>
       <c r="D97">
-        <v>0.006820757207426568</v>
+        <v>0.004540403910003941</v>
       </c>
       <c r="E97">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="F97">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G97" t="s">
         <v>100</v>
@@ -3062,19 +3062,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C98">
-        <v>0.228366617737076</v>
+        <v>0.2291683056460668</v>
       </c>
       <c r="D98">
-        <v>0.004540403910003941</v>
+        <v>0.007020604580875871</v>
       </c>
       <c r="E98">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="F98">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G98" t="s">
         <v>101</v>
@@ -3134,16 +3134,16 @@
         <v>11</v>
       </c>
       <c r="C101">
-        <v>0.231657422465351</v>
+        <v>0.2322637545241757</v>
       </c>
       <c r="D101">
-        <v>0.003569125072104046</v>
+        <v>0.003045722411804987</v>
       </c>
       <c r="E101">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101" t="s">
         <v>104</v>
@@ -3166,7 +3166,7 @@
         <v>15</v>
       </c>
       <c r="F102">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G102" t="s">
         <v>105</v>
@@ -3180,16 +3180,16 @@
         <v>10</v>
       </c>
       <c r="C103">
-        <v>0.234534569345348</v>
+        <v>0.23458636385968</v>
       </c>
       <c r="D103">
-        <v>0.003031322853879705</v>
+        <v>0.003360937805106219</v>
       </c>
       <c r="E103">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G103" t="s">
         <v>106</v>
@@ -3200,19 +3200,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C104">
-        <v>0.23458636385968</v>
+        <v>0.2348269952384308</v>
       </c>
       <c r="D104">
-        <v>0.003360937805106219</v>
+        <v>0.02030132852197703</v>
       </c>
       <c r="E104">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="F104">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G104" t="s">
         <v>107</v>
@@ -3223,19 +3223,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C105">
-        <v>0.2348269952384308</v>
+        <v>0.2349124926406807</v>
       </c>
       <c r="D105">
-        <v>0.02030132852197703</v>
+        <v>0.002828055946339776</v>
       </c>
       <c r="E105">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="F105">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G105" t="s">
         <v>108</v>
@@ -3249,16 +3249,16 @@
         <v>4</v>
       </c>
       <c r="C106">
-        <v>0.235138022785481</v>
+        <v>0.2362070924211827</v>
       </c>
       <c r="D106">
-        <v>0.006640551619874138</v>
+        <v>0.006999394795271236</v>
       </c>
       <c r="E106">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F106">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G106" t="s">
         <v>109</v>
@@ -3281,7 +3281,7 @@
         <v>52</v>
       </c>
       <c r="F107">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G107" t="s">
         <v>110</v>
@@ -3304,7 +3304,7 @@
         <v>21</v>
       </c>
       <c r="F108">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G108" t="s">
         <v>111</v>
@@ -3318,16 +3318,16 @@
         <v>8</v>
       </c>
       <c r="C109">
-        <v>0.2372832026375634</v>
+        <v>0.2377991967806721</v>
       </c>
       <c r="D109">
-        <v>0.003550615686061021</v>
+        <v>0.003139942772507742</v>
       </c>
       <c r="E109">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109" t="s">
         <v>112</v>
@@ -3364,19 +3364,19 @@
         <v>5</v>
       </c>
       <c r="C111">
-        <v>0.238834975382941</v>
+        <v>0.2390312222811474</v>
       </c>
       <c r="D111">
-        <v>0.004521228117727937</v>
+        <v>0.004599494716937597</v>
       </c>
       <c r="E111">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3396,7 +3396,7 @@
         <v>24</v>
       </c>
       <c r="F112">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G112" t="s">
         <v>114</v>
@@ -3433,16 +3433,16 @@
         <v>4</v>
       </c>
       <c r="C114">
-        <v>0.2455726789351715</v>
+        <v>0.2456465907013874</v>
       </c>
       <c r="D114">
-        <v>0.004674023877306794</v>
+        <v>0.004828771319205061</v>
       </c>
       <c r="E114">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114" t="s">
         <v>109</v>
@@ -3456,16 +3456,16 @@
         <v>2</v>
       </c>
       <c r="C115">
-        <v>0.2456689238468879</v>
+        <v>0.2463770275473618</v>
       </c>
       <c r="D115">
-        <v>0.01605750879166265</v>
+        <v>0.01542364211549592</v>
       </c>
       <c r="E115">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F115">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G115" t="s">
         <v>116</v>
@@ -3479,16 +3479,16 @@
         <v>2</v>
       </c>
       <c r="C116">
-        <v>0.251210603438627</v>
+        <v>0.2510921195435202</v>
       </c>
       <c r="D116">
-        <v>0.007529530356607242</v>
+        <v>0.007702697715880227</v>
       </c>
       <c r="E116">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116" t="s">
         <v>116</v>
@@ -3511,7 +3511,7 @@
         <v>34</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G117" t="s">
         <v>117</v>
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="F118">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G118" t="s">
         <v>118</v>
@@ -3626,7 +3626,7 @@
         <v>33</v>
       </c>
       <c r="F122">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G122" t="s">
         <v>46</v>
@@ -3672,7 +3672,7 @@
         <v>42</v>
       </c>
       <c r="F124">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G124" t="s">
         <v>123</v>
@@ -3695,7 +3695,7 @@
         <v>13</v>
       </c>
       <c r="F125">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G125" t="s">
         <v>124</v>
@@ -3718,7 +3718,7 @@
         <v>19</v>
       </c>
       <c r="F126">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G126" t="s">
         <v>125</v>
@@ -3796,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>131</v>
@@ -3813,7 +3813,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>132</v>
@@ -3830,7 +3830,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>131</v>
@@ -3864,7 +3864,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>132</v>
@@ -3881,7 +3881,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>131</v>
@@ -3898,7 +3898,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>132</v>
@@ -3915,7 +3915,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>132</v>
@@ -3932,7 +3932,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>132</v>
@@ -3949,7 +3949,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>132</v>
@@ -4035,90 +4035,90 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>43</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4126,7 +4126,7 @@
         <v>38</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>51</v>
@@ -4134,398 +4134,398 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>86</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>91</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B24">
         <v>4</v>
       </c>
       <c r="C24">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
       <c r="C25">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>5</v>
       </c>
       <c r="C27">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B28">
         <v>5</v>
       </c>
       <c r="C28">
-        <v>67</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <v>5</v>
       </c>
       <c r="C29">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
       <c r="C30">
-        <v>92</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31">
         <v>5</v>
       </c>
       <c r="C31">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="B33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33">
-        <v>94</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="B38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38">
-        <v>64</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>6</v>
       </c>
       <c r="C40">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B41">
         <v>6</v>
       </c>
       <c r="C41">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
       <c r="C42">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B43">
         <v>6</v>
       </c>
       <c r="C43">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B44">
         <v>6</v>
       </c>
       <c r="C44">
-        <v>48</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C45">
-        <v>63</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B46">
         <v>7</v>
       </c>
       <c r="C46">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4541,24 +4541,24 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B48">
         <v>7</v>
       </c>
       <c r="C48">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="B49">
         <v>7</v>
       </c>
       <c r="C49">
-        <v>88</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4585,156 +4585,156 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B52">
         <v>7</v>
       </c>
       <c r="C52">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53">
-        <v>11</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B54">
         <v>8</v>
       </c>
       <c r="C54">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B55">
+        <v>9</v>
+      </c>
+      <c r="C55">
         <v>8</v>
-      </c>
-      <c r="C55">
-        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B56">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B57">
         <v>9</v>
       </c>
       <c r="C57">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="B58">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C58">
-        <v>72</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="B59">
         <v>10</v>
       </c>
       <c r="C59">
-        <v>87</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="B60">
         <v>10</v>
       </c>
       <c r="C60">
-        <v>78</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="B61">
         <v>10</v>
       </c>
       <c r="C61">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="B62">
         <v>10</v>
       </c>
       <c r="C62">
-        <v>80</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B63">
         <v>10</v>
       </c>
       <c r="C63">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B64">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C64">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B65">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C65">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -4742,7 +4742,7 @@
         <v>7</v>
       </c>
       <c r="B66">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C66">
         <v>14</v>
@@ -4750,156 +4750,156 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B67">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C67">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B68">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C68">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="B69">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C69">
-        <v>74</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B70">
         <v>12</v>
       </c>
       <c r="C70">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B71">
         <v>12</v>
       </c>
       <c r="C71">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B72">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C72">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C73">
-        <v>13</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B74">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C74">
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B75">
         <v>14</v>
       </c>
       <c r="C75">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B76">
         <v>14</v>
       </c>
       <c r="C76">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B77">
         <v>14</v>
       </c>
       <c r="C77">
-        <v>18</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B78">
         <v>15</v>
       </c>
       <c r="C78">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B79">
         <v>15</v>
       </c>
       <c r="C79">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B80">
         <v>15</v>
       </c>
       <c r="C80">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:3">

--- a/CCRCs_Clustering/Results/Clustering_results_H2_freq.xlsx
+++ b/CCRCs_Clustering/Results/Clustering_results_H2_freq.xlsx
@@ -411,7 +411,7 @@
     <t>[6]</t>
   </si>
   <si>
-    <t>[41, 56, 76]</t>
+    <t>[76, 56, 41]</t>
   </si>
   <si>
     <t>[12, 22]</t>
@@ -889,7 +889,7 @@
         <v>42</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
@@ -912,7 +912,7 @@
         <v>26</v>
       </c>
       <c r="F4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -935,7 +935,7 @@
         <v>30</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -981,7 +981,7 @@
         <v>20</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -1004,7 +1004,7 @@
         <v>30</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -1027,7 +1027,7 @@
         <v>28</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -1050,7 +1050,7 @@
         <v>20</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -1073,7 +1073,7 @@
         <v>33</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -1119,7 +1119,7 @@
         <v>22</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -1142,7 +1142,7 @@
         <v>24</v>
       </c>
       <c r="F14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
@@ -1165,7 +1165,7 @@
         <v>24</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
@@ -1188,7 +1188,7 @@
         <v>27</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" t="s">
         <v>20</v>
@@ -1211,7 +1211,7 @@
         <v>27</v>
       </c>
       <c r="F17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17" t="s">
         <v>21</v>
@@ -1234,7 +1234,7 @@
         <v>20</v>
       </c>
       <c r="F18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" t="s">
         <v>22</v>
@@ -1257,7 +1257,7 @@
         <v>28</v>
       </c>
       <c r="F19">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G19" t="s">
         <v>23</v>
@@ -1280,7 +1280,7 @@
         <v>16</v>
       </c>
       <c r="F20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G20" t="s">
         <v>24</v>
@@ -1303,7 +1303,7 @@
         <v>24</v>
       </c>
       <c r="F21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G21" t="s">
         <v>25</v>
@@ -1326,7 +1326,7 @@
         <v>26</v>
       </c>
       <c r="F22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G22" t="s">
         <v>26</v>
@@ -1349,7 +1349,7 @@
         <v>10</v>
       </c>
       <c r="F23">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G23" t="s">
         <v>27</v>
@@ -1372,7 +1372,7 @@
         <v>33</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" t="s">
         <v>28</v>
@@ -1395,7 +1395,7 @@
         <v>27</v>
       </c>
       <c r="F25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G25" t="s">
         <v>29</v>
@@ -1418,7 +1418,7 @@
         <v>14</v>
       </c>
       <c r="F26">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G26" t="s">
         <v>30</v>
@@ -1464,7 +1464,7 @@
         <v>24</v>
       </c>
       <c r="F28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G28" t="s">
         <v>32</v>
@@ -1487,7 +1487,7 @@
         <v>33</v>
       </c>
       <c r="F29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G29" t="s">
         <v>33</v>
@@ -1510,7 +1510,7 @@
         <v>13</v>
       </c>
       <c r="F30">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
@@ -1533,7 +1533,7 @@
         <v>19</v>
       </c>
       <c r="F31">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -1556,7 +1556,7 @@
         <v>33</v>
       </c>
       <c r="F32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G32" t="s">
         <v>36</v>
@@ -1579,7 +1579,7 @@
         <v>12</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
@@ -1602,7 +1602,7 @@
         <v>15</v>
       </c>
       <c r="F34">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G34" t="s">
         <v>38</v>
@@ -1625,7 +1625,7 @@
         <v>12</v>
       </c>
       <c r="F35">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G35" t="s">
         <v>39</v>
@@ -1648,7 +1648,7 @@
         <v>42</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G36" t="s">
         <v>40</v>
@@ -1694,7 +1694,7 @@
         <v>33</v>
       </c>
       <c r="F38">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G38" t="s">
         <v>42</v>
@@ -1717,7 +1717,7 @@
         <v>15</v>
       </c>
       <c r="F39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G39" t="s">
         <v>43</v>
@@ -1740,7 +1740,7 @@
         <v>12</v>
       </c>
       <c r="F40">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G40" t="s">
         <v>44</v>
@@ -1763,7 +1763,7 @@
         <v>12</v>
       </c>
       <c r="F41">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -1786,7 +1786,7 @@
         <v>36</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -1809,7 +1809,7 @@
         <v>16</v>
       </c>
       <c r="F43">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G43" t="s">
         <v>47</v>
@@ -1832,7 +1832,7 @@
         <v>30</v>
       </c>
       <c r="F44">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G44" t="s">
         <v>48</v>
@@ -1855,7 +1855,7 @@
         <v>15</v>
       </c>
       <c r="F45">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G45" t="s">
         <v>49</v>
@@ -1878,7 +1878,7 @@
         <v>12</v>
       </c>
       <c r="F46">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G46" t="s">
         <v>50</v>
@@ -1901,7 +1901,7 @@
         <v>20</v>
       </c>
       <c r="F47">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G47" t="s">
         <v>51</v>
@@ -1924,7 +1924,7 @@
         <v>36</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G48" t="s">
         <v>52</v>
@@ -1947,7 +1947,7 @@
         <v>24</v>
       </c>
       <c r="F49">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G49" t="s">
         <v>53</v>
@@ -1970,7 +1970,7 @@
         <v>24</v>
       </c>
       <c r="F50">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G50" t="s">
         <v>54</v>
@@ -1993,7 +1993,7 @@
         <v>15</v>
       </c>
       <c r="F51">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G51" t="s">
         <v>55</v>
@@ -2016,7 +2016,7 @@
         <v>15</v>
       </c>
       <c r="F52">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G52" t="s">
         <v>56</v>
@@ -2039,7 +2039,7 @@
         <v>12</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G53" t="s">
         <v>57</v>
@@ -2062,7 +2062,7 @@
         <v>24</v>
       </c>
       <c r="F54">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G54" t="s">
         <v>58</v>
@@ -2085,7 +2085,7 @@
         <v>36</v>
       </c>
       <c r="F55">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G55" t="s">
         <v>59</v>
@@ -2108,7 +2108,7 @@
         <v>42</v>
       </c>
       <c r="F56">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G56" t="s">
         <v>60</v>
@@ -2131,7 +2131,7 @@
         <v>15</v>
       </c>
       <c r="F57">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G57" t="s">
         <v>61</v>
@@ -2154,7 +2154,7 @@
         <v>15</v>
       </c>
       <c r="F58">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G58" t="s">
         <v>62</v>
@@ -2177,7 +2177,7 @@
         <v>12</v>
       </c>
       <c r="F59">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G59" t="s">
         <v>63</v>
@@ -2200,7 +2200,7 @@
         <v>12</v>
       </c>
       <c r="F60">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G60" t="s">
         <v>64</v>
@@ -2223,7 +2223,7 @@
         <v>17</v>
       </c>
       <c r="F61">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G61" t="s">
         <v>65</v>
@@ -2246,7 +2246,7 @@
         <v>60</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G62" t="s">
         <v>66</v>
@@ -2269,7 +2269,7 @@
         <v>35</v>
       </c>
       <c r="F63">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
         <v>67</v>
@@ -2292,7 +2292,7 @@
         <v>15</v>
       </c>
       <c r="F64">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G64" t="s">
         <v>68</v>
@@ -2315,7 +2315,7 @@
         <v>24</v>
       </c>
       <c r="F65">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G65" t="s">
         <v>69</v>
@@ -2338,7 +2338,7 @@
         <v>12</v>
       </c>
       <c r="F66">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G66" t="s">
         <v>70</v>
@@ -2361,7 +2361,7 @@
         <v>48</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G67" t="s">
         <v>71</v>
@@ -2384,7 +2384,7 @@
         <v>27</v>
       </c>
       <c r="F68">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G68" t="s">
         <v>72</v>
@@ -2407,7 +2407,7 @@
         <v>15</v>
       </c>
       <c r="F69">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G69" t="s">
         <v>73</v>
@@ -2430,7 +2430,7 @@
         <v>25</v>
       </c>
       <c r="F70">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G70" t="s">
         <v>74</v>
@@ -2453,7 +2453,7 @@
         <v>15</v>
       </c>
       <c r="F71">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G71" t="s">
         <v>75</v>
@@ -2476,7 +2476,7 @@
         <v>55</v>
       </c>
       <c r="F72">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
         <v>76</v>
@@ -2499,7 +2499,7 @@
         <v>28</v>
       </c>
       <c r="F73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G73" t="s">
         <v>77</v>
@@ -2522,7 +2522,7 @@
         <v>17</v>
       </c>
       <c r="F74">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G74" t="s">
         <v>78</v>
@@ -2545,7 +2545,7 @@
         <v>30</v>
       </c>
       <c r="F75">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G75" t="s">
         <v>79</v>
@@ -2568,7 +2568,7 @@
         <v>12</v>
       </c>
       <c r="F76">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G76" t="s">
         <v>80</v>
@@ -2591,7 +2591,7 @@
         <v>12</v>
       </c>
       <c r="F77">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G77" t="s">
         <v>81</v>
@@ -2614,7 +2614,7 @@
         <v>20</v>
       </c>
       <c r="F78">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G78" t="s">
         <v>82</v>
@@ -2637,7 +2637,7 @@
         <v>17</v>
       </c>
       <c r="F79">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G79" t="s">
         <v>83</v>
@@ -2660,7 +2660,7 @@
         <v>28</v>
       </c>
       <c r="F80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G80" t="s">
         <v>84</v>
@@ -2683,7 +2683,7 @@
         <v>45</v>
       </c>
       <c r="F81">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
         <v>85</v>
@@ -2706,7 +2706,7 @@
         <v>12</v>
       </c>
       <c r="F82">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G82" t="s">
         <v>86</v>
@@ -2729,7 +2729,7 @@
         <v>54</v>
       </c>
       <c r="F83">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G83" t="s">
         <v>87</v>
@@ -2752,7 +2752,7 @@
         <v>11</v>
       </c>
       <c r="F84">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G84" t="s">
         <v>88</v>
@@ -2775,7 +2775,7 @@
         <v>54</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G85" t="s">
         <v>89</v>
@@ -2798,7 +2798,7 @@
         <v>40</v>
       </c>
       <c r="F86">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
         <v>90</v>
@@ -2821,7 +2821,7 @@
         <v>12</v>
       </c>
       <c r="F87">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G87" t="s">
         <v>91</v>
@@ -2844,7 +2844,7 @@
         <v>42</v>
       </c>
       <c r="F88">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G88" t="s">
         <v>92</v>
@@ -2867,7 +2867,7 @@
         <v>18</v>
       </c>
       <c r="F89">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G89" t="s">
         <v>93</v>
@@ -2890,7 +2890,7 @@
         <v>28</v>
       </c>
       <c r="F90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G90" t="s">
         <v>94</v>
@@ -2913,7 +2913,7 @@
         <v>36</v>
       </c>
       <c r="F91">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G91" t="s">
         <v>95</v>
@@ -2936,7 +2936,7 @@
         <v>45</v>
       </c>
       <c r="F92">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
         <v>96</v>
@@ -2959,7 +2959,7 @@
         <v>45</v>
       </c>
       <c r="F93">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G93" t="s">
         <v>97</v>
@@ -2982,7 +2982,7 @@
         <v>48</v>
       </c>
       <c r="F94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G94" t="s">
         <v>98</v>
@@ -3005,7 +3005,7 @@
         <v>44</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G95" t="s">
         <v>59</v>
@@ -3028,7 +3028,7 @@
         <v>50</v>
       </c>
       <c r="F96">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G96" t="s">
         <v>99</v>
@@ -3051,7 +3051,7 @@
         <v>7</v>
       </c>
       <c r="F97">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G97" t="s">
         <v>100</v>
@@ -3074,7 +3074,7 @@
         <v>63</v>
       </c>
       <c r="F98">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G98" t="s">
         <v>101</v>
@@ -3143,7 +3143,7 @@
         <v>55</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G101" t="s">
         <v>104</v>
@@ -3166,7 +3166,7 @@
         <v>15</v>
       </c>
       <c r="F102">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G102" t="s">
         <v>105</v>
@@ -3189,7 +3189,7 @@
         <v>3</v>
       </c>
       <c r="F103">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G103" t="s">
         <v>106</v>
@@ -3212,7 +3212,7 @@
         <v>37</v>
       </c>
       <c r="F104">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
         <v>107</v>
@@ -3235,7 +3235,7 @@
         <v>66</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G105" t="s">
         <v>108</v>
@@ -3258,7 +3258,7 @@
         <v>63</v>
       </c>
       <c r="F106">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G106" t="s">
         <v>109</v>
@@ -3281,7 +3281,7 @@
         <v>52</v>
       </c>
       <c r="F107">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G107" t="s">
         <v>110</v>
@@ -3304,7 +3304,7 @@
         <v>21</v>
       </c>
       <c r="F108">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G108" t="s">
         <v>111</v>
@@ -3327,7 +3327,7 @@
         <v>44</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G109" t="s">
         <v>112</v>
@@ -3350,7 +3350,7 @@
         <v>3</v>
       </c>
       <c r="F110">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G110" t="s">
         <v>113</v>
@@ -3373,7 +3373,7 @@
         <v>77</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G111" t="s">
         <v>101</v>
@@ -3396,7 +3396,7 @@
         <v>24</v>
       </c>
       <c r="F112">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G112" t="s">
         <v>114</v>
@@ -3419,7 +3419,7 @@
         <v>4</v>
       </c>
       <c r="F113">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G113" t="s">
         <v>115</v>
@@ -3442,7 +3442,7 @@
         <v>77</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G114" t="s">
         <v>109</v>
@@ -3465,7 +3465,7 @@
         <v>58</v>
       </c>
       <c r="F115">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G115" t="s">
         <v>116</v>
@@ -3488,7 +3488,7 @@
         <v>66</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G116" t="s">
         <v>116</v>
@@ -3511,7 +3511,7 @@
         <v>34</v>
       </c>
       <c r="F117">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G117" t="s">
         <v>117</v>
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="F118">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
         <v>118</v>
@@ -3557,7 +3557,7 @@
         <v>3</v>
       </c>
       <c r="F119">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G119" t="s">
         <v>119</v>
@@ -3580,7 +3580,7 @@
         <v>8</v>
       </c>
       <c r="F120">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G120" t="s">
         <v>120</v>
@@ -3603,7 +3603,7 @@
         <v>15</v>
       </c>
       <c r="F121">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G121" t="s">
         <v>121</v>
@@ -3626,7 +3626,7 @@
         <v>33</v>
       </c>
       <c r="F122">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G122" t="s">
         <v>46</v>
@@ -3672,7 +3672,7 @@
         <v>42</v>
       </c>
       <c r="F124">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G124" t="s">
         <v>123</v>
@@ -3695,7 +3695,7 @@
         <v>13</v>
       </c>
       <c r="F125">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G125" t="s">
         <v>124</v>
@@ -3718,7 +3718,7 @@
         <v>19</v>
       </c>
       <c r="F126">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G126" t="s">
         <v>125</v>
@@ -3796,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>131</v>
@@ -3813,7 +3813,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>132</v>
@@ -3830,7 +3830,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>131</v>
@@ -3864,7 +3864,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>132</v>
@@ -3881,7 +3881,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>131</v>
@@ -3898,7 +3898,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>132</v>
@@ -3915,7 +3915,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>132</v>
@@ -3932,7 +3932,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>132</v>
@@ -3949,7 +3949,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>132</v>
@@ -3966,7 +3966,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>133</v>
@@ -3983,7 +3983,7 @@
         <v>24</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>133</v>
@@ -4000,7 +4000,7 @@
         <v>28</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
         <v>133</v>
@@ -4035,519 +4035,519 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>86</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>46</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>61</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>44</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>48</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>94</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B33">
         <v>5</v>
       </c>
       <c r="C33">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B34">
         <v>5</v>
       </c>
       <c r="C34">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>5</v>
       </c>
       <c r="C35">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
       <c r="C36">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>5</v>
       </c>
       <c r="C37">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="B38">
         <v>5</v>
       </c>
       <c r="C38">
-        <v>93</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B39">
         <v>5</v>
       </c>
       <c r="C39">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="B44">
         <v>6</v>
       </c>
       <c r="C44">
-        <v>87</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="B45">
         <v>7</v>
       </c>
       <c r="C45">
-        <v>95</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B46">
         <v>7</v>
       </c>
       <c r="C46">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48">
-        <v>83</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4555,7 +4555,7 @@
         <v>4</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C49">
         <v>11</v>
@@ -4563,79 +4563,79 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C50">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B51">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C51">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B52">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C52">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B53">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54">
-        <v>32</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="B55">
         <v>9</v>
       </c>
       <c r="C55">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="B56">
         <v>9</v>
       </c>
       <c r="C56">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -4643,7 +4643,7 @@
         <v>3</v>
       </c>
       <c r="B57">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C57">
         <v>10</v>
@@ -4651,255 +4651,255 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B58">
         <v>10</v>
       </c>
       <c r="C58">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B59">
         <v>10</v>
       </c>
       <c r="C59">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B60">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C60">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B61">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C61">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B62">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C62">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="B63">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C63">
-        <v>74</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="B64">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C64">
-        <v>15</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B65">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C65">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B66">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C66">
-        <v>14</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B67">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C67">
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B68">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C68">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B69">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C69">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B70">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C70">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
+        <v>11</v>
+      </c>
+      <c r="B71">
         <v>14</v>
       </c>
-      <c r="B71">
-        <v>12</v>
-      </c>
       <c r="C71">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B72">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C72">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="B73">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C73">
-        <v>92</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B74">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C74">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B75">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C75">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B76">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C76">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B77">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C77">
-        <v>67</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B78">
         <v>15</v>
       </c>
       <c r="C78">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B79">
         <v>15</v>
       </c>
       <c r="C79">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B80">
         <v>15</v>
       </c>
       <c r="C80">
-        <v>38</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:3">
